--- a/backend/storage/app/xlsx/seed_bairros_itarare.xlsx
+++ b/backend/storage/app/xlsx/seed_bairros_itarare.xlsx
@@ -23,7 +23,7 @@
     <t>CENTRO</t>
   </si>
   <si>
-    <t>9c0e72ad-5ee8-495b-802d-796d2b476235</t>
+    <t>e9305f98-f4c3-42e0-a02c-45439616e031</t>
   </si>
   <si>
     <t>1-02</t>

--- a/backend/storage/app/xlsx/seed_bairros_itarare.xlsx
+++ b/backend/storage/app/xlsx/seed_bairros_itarare.xlsx
@@ -23,7 +23,7 @@
     <t>CENTRO</t>
   </si>
   <si>
-    <t>e9305f98-f4c3-42e0-a02c-45439616e031</t>
+    <t>7d871923-7d08-45bf-8505-8a34246e3bd5</t>
   </si>
   <si>
     <t>1-02</t>

--- a/backend/storage/app/xlsx/seed_bairros_itarare.xlsx
+++ b/backend/storage/app/xlsx/seed_bairros_itarare.xlsx
@@ -23,7 +23,7 @@
     <t>CENTRO</t>
   </si>
   <si>
-    <t>7d871923-7d08-45bf-8505-8a34246e3bd5</t>
+    <t>033bbd30-025c-48cb-844e-bc7e8ede32c5</t>
   </si>
   <si>
     <t>1-02</t>

--- a/backend/storage/app/xlsx/seed_bairros_itarare.xlsx
+++ b/backend/storage/app/xlsx/seed_bairros_itarare.xlsx
@@ -23,7 +23,7 @@
     <t>CENTRO</t>
   </si>
   <si>
-    <t>033bbd30-025c-48cb-844e-bc7e8ede32c5</t>
+    <t>88d6fa03-51ce-4e3a-925d-0537047fce35</t>
   </si>
   <si>
     <t>1-02</t>

--- a/backend/storage/app/xlsx/seed_bairros_itarare.xlsx
+++ b/backend/storage/app/xlsx/seed_bairros_itarare.xlsx
@@ -23,7 +23,7 @@
     <t>CENTRO</t>
   </si>
   <si>
-    <t>88d6fa03-51ce-4e3a-925d-0537047fce35</t>
+    <t>eb9fc7ed-a052-449f-a6e9-ba67ecebccb2</t>
   </si>
   <si>
     <t>1-02</t>
